--- a/BalanceSheet/RNG_bal.xlsx
+++ b/BalanceSheet/RNG_bal.xlsx
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>16736000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>6153000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-1861000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>888000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>11127000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>22443000.0</v>
